--- a/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15960"/>
+    <workbookView windowWidth="28000" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -157,16 +157,13 @@
     <t>结束效果组ID</t>
   </si>
   <si>
-    <t>英雄1000，植物加速成长</t>
+    <t>英雄1000，攻速BUFF</t>
   </si>
   <si>
     <t>增益</t>
   </si>
   <si>
     <t>唯一</t>
-  </si>
-  <si>
-    <t>英雄1000，建筑和士兵加速攻击</t>
   </si>
   <si>
     <t>随机范围掉落</t>
@@ -185,7 +182,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,13 +210,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -370,7 +360,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,12 +490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,152 +669,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -841,13 +825,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1175,13 +1153,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.6607142857143" style="1" customWidth="1"/>
@@ -1306,210 +1284,153 @@
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" hidden="1" spans="2:17">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:17">
-      <c r="B5" s="6">
+    <row r="5" s="1" customFormat="1" spans="2:15">
+      <c r="B5" s="1">
         <v>10000101</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="6" t="b">
+      <c r="E5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="b">
+      <c r="F5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="1">
         <v>5000</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6">
+      <c r="L5" s="1">
         <v>33000001</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6">
+      <c r="O5" s="1">
         <v>100001011</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:17">
-      <c r="B6" s="6">
-        <v>10000201</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="6" s="1" customFormat="1" spans="2:16">
+      <c r="B6" s="5">
+        <v>92020001</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="P6" s="5">
+        <v>920200011</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:15">
+      <c r="B7" s="5">
+        <v>92020002</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="6" t="b">
+      <c r="E7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="b">
+      <c r="F7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="6">
-        <v>5000</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6">
-        <v>100002011</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:17">
-      <c r="B7" s="7">
-        <v>92020001</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="H7" s="1">
         <v>30000</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
-        <v>3000</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7">
-        <v>920200011</v>
-      </c>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:17">
-      <c r="B8" s="7">
-        <v>92020002</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="6">
-        <v>30000</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7">
+      <c r="O7" s="5">
         <v>920200021</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>唯一</t>
+  </si>
+  <si>
+    <t>攻速加成100%</t>
   </si>
   <si>
     <t>随机范围掉落</t>
@@ -1153,13 +1156,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.6607142857143" style="1" customWidth="1"/>
@@ -1333,7 +1336,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" hidden="1" spans="2:17">
+    <row r="4" s="1" customFormat="1" spans="2:17">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1380,13 +1383,16 @@
         <v>100001011</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:16">
-      <c r="B6" s="5">
-        <v>92020001</v>
+    <row r="6" s="1" customFormat="1" spans="2:15">
+      <c r="B6" s="1">
+        <v>30030001</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="1" t="b">
         <v>1</v>
       </c>
@@ -1397,25 +1403,22 @@
         <v>41</v>
       </c>
       <c r="H6" s="1">
-        <v>30000</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3000</v>
-      </c>
-      <c r="P6" s="5">
-        <v>920200011</v>
+        <v>5000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>33000001</v>
+      </c>
+      <c r="O6" s="1">
+        <v>300300011</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:15">
+    <row r="7" s="1" customFormat="1" spans="2:16">
       <c r="B7" s="5">
-        <v>92020002</v>
+        <v>92020001</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E7" s="1" t="b">
         <v>1</v>
       </c>
@@ -1428,7 +1431,36 @@
       <c r="H7" s="1">
         <v>30000</v>
       </c>
-      <c r="O7" s="5">
+      <c r="J7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="P7" s="5">
+        <v>920200011</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:15">
+      <c r="B8" s="5">
+        <v>92020002</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1">
+        <v>30000</v>
+      </c>
+      <c r="O8" s="5">
         <v>920200021</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>攻速加成100%</t>
-  </si>
-  <si>
-    <t>随机范围掉落</t>
   </si>
   <si>
     <t>干旱降低水塔速度</t>
@@ -1156,13 +1153,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.6607142857143" style="1" customWidth="1"/>
@@ -1176,8 +1173,7 @@
     <col min="12" max="12" width="19" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="13.1607142857143" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="1" customWidth="1"/>
-    <col min="16" max="17" width="13.1607142857143" style="1" customWidth="1"/>
+    <col min="15" max="17" width="14.7232142857143" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1356,7 +1352,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="2:15">
       <c r="B5" s="1">
-        <v>10000101</v>
+        <v>10010101</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -1380,7 +1376,7 @@
         <v>33000001</v>
       </c>
       <c r="O5" s="1">
-        <v>100001011</v>
+        <v>100101011</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:15">
@@ -1412,13 +1408,16 @@
         <v>300300011</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:16">
+    <row r="7" s="1" customFormat="1" spans="2:15">
       <c r="B7" s="5">
-        <v>92020001</v>
+        <v>92020002</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" s="1" t="b">
         <v>1</v>
       </c>
@@ -1431,36 +1430,7 @@
       <c r="H7" s="1">
         <v>30000</v>
       </c>
-      <c r="J7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="P7" s="5">
-        <v>920200011</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:15">
-      <c r="B8" s="5">
-        <v>92020002</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1">
-        <v>30000</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="O7" s="5">
         <v>920200021</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowWidth="28000" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>攻速加成100%</t>
+  </si>
+  <si>
+    <t>移动速度-20%</t>
+  </si>
+  <si>
+    <t>减益</t>
   </si>
   <si>
     <t>干旱降低水塔速度</t>
@@ -1153,13 +1159,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.6607142857143" style="1" customWidth="1"/>
@@ -1409,14 +1415,14 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:15">
-      <c r="B7" s="5">
-        <v>92020002</v>
+      <c r="B7" s="1">
+        <v>30050001</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>1</v>
@@ -1428,9 +1434,38 @@
         <v>41</v>
       </c>
       <c r="H7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>300500013</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:15">
+      <c r="B8" s="5">
+        <v>92020002</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1">
         <v>30000</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O8" s="5">
         <v>920200021</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15820"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="7"/>
@@ -1405,7 +1405,7 @@
         <v>41</v>
       </c>
       <c r="H6" s="1">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="1">
         <v>33000001</v>
@@ -1434,7 +1434,7 @@
         <v>41</v>
       </c>
       <c r="H7" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="K7" s="1">
         <v>3</v>
@@ -1463,7 +1463,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="1">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="O8" s="5">
         <v>920200021</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="7"/>
@@ -1434,7 +1434,7 @@
         <v>41</v>
       </c>
       <c r="H7" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="K7" s="1">
         <v>3</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Buff.xlsx
@@ -16,10 +16,25 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>stone</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="P3" authorId="0">
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>唯一：新增时移除旧的添加新的
+集中：新增时进行叠层
+分散：新增时不管老的，再次添加新的</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -38,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -173,6 +188,9 @@
   </si>
   <si>
     <t>减益</t>
+  </si>
+  <si>
+    <t>集中</t>
   </si>
   <si>
     <t>干旱降低水塔速度</t>
@@ -188,7 +206,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +382,11 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1159,13 +1182,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.6607142857143" style="1" customWidth="1"/>
@@ -1387,10 +1410,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="2:15">
       <c r="B6" s="1">
-        <v>30030001</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>30009001</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>40</v>
@@ -1404,25 +1424,19 @@
       <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L6" s="1">
-        <v>33000001</v>
-      </c>
       <c r="O6" s="1">
-        <v>300300011</v>
+        <v>300090011</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:15">
       <c r="B7" s="1">
-        <v>30050001</v>
+        <v>30030001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>1</v>
@@ -1434,24 +1448,24 @@
         <v>41</v>
       </c>
       <c r="H7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>33000001</v>
       </c>
       <c r="O7" s="1">
-        <v>300500013</v>
+        <v>300300011</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:15">
-      <c r="B8" s="5">
-        <v>92020002</v>
+      <c r="B8" s="1">
+        <v>30050001</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="b">
         <v>1</v>
@@ -1460,12 +1474,41 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1">
         <v>3000</v>
       </c>
-      <c r="O8" s="5">
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>300500013</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:15">
+      <c r="B9" s="5">
+        <v>92020002</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O9" s="5">
         <v>920200021</v>
       </c>
     </row>
